--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_33.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_33.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_9</t>
+          <t>model_1_33_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999093250323341</v>
+        <v>0.9363386650560434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.829001386667423</v>
+        <v>0.7426704185066972</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8217160333963969</v>
+        <v>0.6606623647291205</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996977551306404</v>
+        <v>0.896831510408643</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003774369736439761</v>
+        <v>0.2649920062602286</v>
       </c>
       <c r="G2" t="n">
-        <v>1.143468514731158</v>
+        <v>1.720764096339487</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6377114110427494</v>
+        <v>1.213791045437335</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001459660083541996</v>
+        <v>0.4400421381454886</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05427953848190172</v>
+        <v>1.350942516002464</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01942773722397892</v>
+        <v>0.5147737427843699</v>
       </c>
       <c r="L2" t="n">
-        <v>1.005803197930618</v>
+        <v>0.9133122247571654</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01973370466464429</v>
+        <v>0.5228809146482691</v>
       </c>
       <c r="N2" t="n">
-        <v>145.7642139208972</v>
+        <v>36.65611123701326</v>
       </c>
       <c r="O2" t="n">
-        <v>287.0993864641136</v>
+        <v>73.62069482523908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_8</t>
+          <t>model_1_33_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998990461863598</v>
+        <v>0.9364342639926782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8288048923956521</v>
+        <v>0.7423213378222075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8214205746627841</v>
+        <v>0.6594572015210441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996866387087999</v>
+        <v>0.8955303262640278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004202229444244706</v>
+        <v>0.2645940731342975</v>
       </c>
       <c r="G3" t="n">
-        <v>1.144782472831262</v>
+        <v>1.723098400484038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6387682498012004</v>
+        <v>1.218101844353246</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001513345683786264</v>
+        <v>0.4455920483495189</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05753368553101632</v>
+        <v>1.343333209475237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02049934009729266</v>
+        <v>0.5143870849217518</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006461044072971</v>
+        <v>0.913442402032583</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02082218421200285</v>
+        <v>0.5224881673108308</v>
       </c>
       <c r="N3" t="n">
-        <v>145.5494503349275</v>
+        <v>36.65911685378686</v>
       </c>
       <c r="O3" t="n">
-        <v>286.8846228781438</v>
+        <v>73.62370044201268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_7</t>
+          <t>model_1_33_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998984421446261</v>
+        <v>0.9366367332969119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8288016168364918</v>
+        <v>0.74118420181155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.821385886545191</v>
+        <v>0.6554911745179284</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996865135733927</v>
+        <v>0.8913519301584889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004227372842669237</v>
+        <v>0.2637512892501358</v>
       </c>
       <c r="G4" t="n">
-        <v>1.14480437651045</v>
+        <v>1.730702434223335</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6388923271864984</v>
+        <v>1.232288092979932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001513950012188502</v>
+        <v>0.4634140632261829</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05724643256811709</v>
+        <v>1.319544016126427</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02056057597118631</v>
+        <v>0.5135672197971126</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00649970274393</v>
+        <v>0.9137181049149439</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0208843844896969</v>
+        <v>0.521655390130043</v>
       </c>
       <c r="N4" t="n">
-        <v>145.5375192984992</v>
+        <v>36.66549741210327</v>
       </c>
       <c r="O4" t="n">
-        <v>286.8726918417156</v>
+        <v>73.63008100032908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_6</t>
+          <t>model_1_33_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999109398148041</v>
+        <v>0.9366752446275639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.828510226147116</v>
+        <v>0.7407377036115768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8209187793241883</v>
+        <v>0.653934272533612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997723352596759</v>
+        <v>0.8897510469508467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003707153985027571</v>
+        <v>0.2635909848081661</v>
       </c>
       <c r="G5" t="n">
-        <v>1.146752907392036</v>
+        <v>1.733688169742491</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6405631426315921</v>
+        <v>1.237857041103468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001099483126331115</v>
+        <v>0.4702422728122921</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05105562789680768</v>
+        <v>1.310664276159697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01925397098010582</v>
+        <v>0.5134111264943195</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00569985185254</v>
+        <v>0.9137705458758317</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01955720177613271</v>
+        <v>0.5214968385137669</v>
       </c>
       <c r="N5" t="n">
-        <v>145.8001518193651</v>
+        <v>36.66671335442228</v>
       </c>
       <c r="O5" t="n">
-        <v>287.1353243625815</v>
+        <v>73.63129694264809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_5</t>
+          <t>model_1_33_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999103851664205</v>
+        <v>0.9366816472045946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8284947773790843</v>
+        <v>0.7406267033704879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8208952999466297</v>
+        <v>0.6535481860500014</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997730918863053</v>
+        <v>0.8893572268372358</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003730241372067414</v>
+        <v>0.2635643339103472</v>
       </c>
       <c r="G6" t="n">
-        <v>1.146856213375</v>
+        <v>1.734430428865761</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6406471270037069</v>
+        <v>1.239238050068763</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001095829076912918</v>
+        <v>0.4719220245031857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05129980933221417</v>
+        <v>1.308494258493876</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01931383279431458</v>
+        <v>0.5133851711048414</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005735349349088</v>
+        <v>0.9137792642785969</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0196180063540754</v>
+        <v>0.5214704743528504</v>
       </c>
       <c r="N6" t="n">
-        <v>145.7877348588082</v>
+        <v>36.66691557867684</v>
       </c>
       <c r="O6" t="n">
-        <v>287.1229074020246</v>
+        <v>73.63149916690266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_4</t>
+          <t>model_1_33_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999126052344683</v>
+        <v>0.9366907895844987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8284474131665519</v>
+        <v>0.7404053709496022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8207791274454012</v>
+        <v>0.6527801848369954</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997939421134885</v>
+        <v>0.8885773719777601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000363783044688959</v>
+        <v>0.2635262785099238</v>
       </c>
       <c r="G7" t="n">
-        <v>1.147172938082296</v>
+        <v>1.735910479783366</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6410626693045325</v>
+        <v>1.241985145876416</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000995135078643837</v>
+        <v>0.4752483211385841</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04847479441745386</v>
+        <v>1.3042248749928</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01907309740679156</v>
+        <v>0.5133481065611558</v>
       </c>
       <c r="L7" t="n">
-        <v>1.005593264994026</v>
+        <v>0.9137917134767641</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01937347962484599</v>
+        <v>0.5214328260796528</v>
       </c>
       <c r="N7" t="n">
-        <v>145.8379057981979</v>
+        <v>36.66720437456576</v>
       </c>
       <c r="O7" t="n">
-        <v>287.1730783414143</v>
+        <v>73.63178796279159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_3</t>
+          <t>model_1_33_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999144269262851</v>
+        <v>0.936693582147113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8283737918030699</v>
+        <v>0.7402938831254744</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8206745497088263</v>
+        <v>0.6523981326252756</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998068946597436</v>
+        <v>0.8881912268330509</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003562002038682938</v>
+        <v>0.2635146543934893</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147665244478895</v>
+        <v>1.736655999376663</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6414367378044953</v>
+        <v>1.243351724485078</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009325821069791473</v>
+        <v>0.4768953369646891</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04965810529019223</v>
+        <v>1.302120036472103</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01887326691032302</v>
+        <v>0.5133367845708013</v>
       </c>
       <c r="L8" t="n">
-        <v>1.005476676717755</v>
+        <v>0.9137955161152176</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01917050199781528</v>
+        <v>0.521421325779268</v>
       </c>
       <c r="N8" t="n">
-        <v>145.8800352295333</v>
+        <v>36.6672925963012</v>
       </c>
       <c r="O8" t="n">
-        <v>287.2152077727497</v>
+        <v>73.63187618452702</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_2</t>
+          <t>model_1_33_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999144635802041</v>
+        <v>0.93669531426298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8283322961163293</v>
+        <v>0.7401840111770919</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8206369348177383</v>
+        <v>0.6520175644321786</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998112471493571</v>
+        <v>0.8878078095865783</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003560476309521839</v>
+        <v>0.2635074444149506</v>
       </c>
       <c r="G9" t="n">
-        <v>1.1479427263272</v>
+        <v>1.737390713601411</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6415712840888804</v>
+        <v>1.244712994845174</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009115622121957322</v>
+        <v>0.4785307175504465</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05051965830411451</v>
+        <v>1.300035929153778</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01886922443960493</v>
+        <v>0.51332976186361</v>
       </c>
       <c r="L9" t="n">
-        <v>1.005474330866939</v>
+        <v>0.9137978747410792</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01916639586222436</v>
+        <v>0.5214141924714587</v>
       </c>
       <c r="N9" t="n">
-        <v>145.8808920825049</v>
+        <v>36.6673473187013</v>
       </c>
       <c r="O9" t="n">
-        <v>287.2160646257213</v>
+        <v>73.63193090692712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_1</t>
+          <t>model_1_33_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999168033466499</v>
+        <v>0.9366787987140008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8282930558068923</v>
+        <v>0.7394325305186173</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8206230102170414</v>
+        <v>0.6493962442773884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998245194948464</v>
+        <v>0.8851957449434305</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003463082906568906</v>
+        <v>0.2635761908284893</v>
       </c>
       <c r="G10" t="n">
-        <v>1.14820512645709</v>
+        <v>1.742415868224881</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6416210915781781</v>
+        <v>1.254089305045984</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008474648034728068</v>
+        <v>0.489671895589379</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0489007063614495</v>
+        <v>1.286003917223121</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01860936029682081</v>
+        <v>0.5133967187550864</v>
       </c>
       <c r="L10" t="n">
-        <v>1.005324585814407</v>
+        <v>0.9137753854828947</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01890243911896024</v>
+        <v>0.5214822038670434</v>
       </c>
       <c r="N10" t="n">
-        <v>145.9363623323284</v>
+        <v>36.66682560708416</v>
       </c>
       <c r="O10" t="n">
-        <v>287.2715348755448</v>
+        <v>73.63140919530998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_0</t>
+          <t>model_1_33_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999229850164245</v>
+        <v>0.9366305523168565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8280599970838723</v>
+        <v>0.7388043697066937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8205713081947482</v>
+        <v>0.6472126433233667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998695544883071</v>
+        <v>0.8830574142390161</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003205769251892661</v>
+        <v>0.2637770177446284</v>
       </c>
       <c r="G11" t="n">
-        <v>1.149763591211061</v>
+        <v>1.746616382466628</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6418060267140655</v>
+        <v>1.261899919046061</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006299729980488695</v>
+        <v>0.4987924673740362</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04210362847787934</v>
+        <v>1.274722086336426</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01790466210765414</v>
+        <v>0.5135922679953704</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004928958948831</v>
+        <v>0.9137096882612514</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01818664263775395</v>
+        <v>0.5216808328123843</v>
       </c>
       <c r="N11" t="n">
-        <v>146.0907765884234</v>
+        <v>36.66530232498341</v>
       </c>
       <c r="O11" t="n">
-        <v>287.4259491316398</v>
+        <v>73.62988591320924</v>
       </c>
     </row>
   </sheetData>
